--- a/docs/CareConnect-Immunization-1.xlsx
+++ b/docs/CareConnect-Immunization-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$125</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$124</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4461" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4433" uniqueCount="546">
   <si>
     <t>Path</t>
   </si>
@@ -343,6 +343,20 @@
 </t>
   </si>
   <si>
+    <t>Was a parent present at the Immunization</t>
+  </si>
+  <si>
+    <t>Was a parent present at the Immunization.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>recordedDate</t>
   </si>
   <si>
@@ -353,6 +367,9 @@
     <t>The date that the Vaccination was recorded</t>
   </si>
   <si>
+    <t>The date that the event was recorded on the system.</t>
+  </si>
+  <si>
     <t>vaccinationProcedure</t>
   </si>
   <si>
@@ -360,6 +377,12 @@
 </t>
   </si>
   <si>
+    <t>An extension to hold an immunization procedure code</t>
+  </si>
+  <si>
+    <t>An extension to hold an immunization procedure code.</t>
+  </si>
+  <si>
     <t>Immunization.modifierExtension</t>
   </si>
   <si>
@@ -512,7 +535,7 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri</t>
+    <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -955,41 +978,10 @@
 </t>
   </si>
   <si>
-    <t>Immunization.site.coding.extension.id</t>
-  </si>
-  <si>
-    <t>Immunization.site.coding.extension.extension</t>
-  </si>
-  <si>
-    <t>Immunization.site.coding.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>Immunization.site.coding.extension.value[x]</t>
-  </si>
-  <si>
-    <t>base64Binary
-booleancodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingMeta</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
+    <t>The SNOMED CT Description ID for the display</t>
+  </si>
+  <si>
+    <t>The SNOMED CT Description ID for the display.</t>
   </si>
   <si>
     <t>Immunization.site.coding.system</t>
@@ -1173,18 +1165,6 @@
   </si>
   <si>
     <t>Immunization.route.coding.extension</t>
-  </si>
-  <si>
-    <t>Immunization.route.coding.extension.id</t>
-  </si>
-  <si>
-    <t>Immunization.route.coding.extension.extension</t>
-  </si>
-  <si>
-    <t>Immunization.route.coding.extension.url</t>
-  </si>
-  <si>
-    <t>Immunization.route.coding.extension.value[x]</t>
   </si>
   <si>
     <t>Immunization.route.coding.system</t>
@@ -1631,18 +1611,6 @@
     <t>Immunization.vaccinationProtocol.targetDisease.coding.extension</t>
   </si>
   <si>
-    <t>Immunization.vaccinationProtocol.targetDisease.coding.extension.id</t>
-  </si>
-  <si>
-    <t>Immunization.vaccinationProtocol.targetDisease.coding.extension.extension</t>
-  </si>
-  <si>
-    <t>Immunization.vaccinationProtocol.targetDisease.coding.extension.url</t>
-  </si>
-  <si>
-    <t>Immunization.vaccinationProtocol.targetDisease.coding.extension.value[x]</t>
-  </si>
-  <si>
     <t>Immunization.vaccinationProtocol.targetDisease.coding.system</t>
   </si>
   <si>
@@ -1680,6 +1648,39 @@
   </si>
   <si>
     <t>.participation[typeCode=CSM].role[classCode=INST].scopedRole.scoper[classCode=MMAT].playedRole[classCode=INGR].scopedRole.scoper[classCode=MMAT].playedRole[classCode=HLTHCHRT].participation[typeCode=SBJ].observation[classCode=OBS].value</t>
+  </si>
+  <si>
+    <t>Immunization.vaccinationProtocol.doseStatus.id</t>
+  </si>
+  <si>
+    <t>Immunization.vaccinationProtocol.doseStatus.extension</t>
+  </si>
+  <si>
+    <t>Immunization.vaccinationProtocol.doseStatus.coding</t>
+  </si>
+  <si>
+    <t>Immunization.vaccinationProtocol.doseStatus.coding.id</t>
+  </si>
+  <si>
+    <t>Immunization.vaccinationProtocol.doseStatus.coding.extension</t>
+  </si>
+  <si>
+    <t>Immunization.vaccinationProtocol.doseStatus.coding.system</t>
+  </si>
+  <si>
+    <t>Immunization.vaccinationProtocol.doseStatus.coding.version</t>
+  </si>
+  <si>
+    <t>Immunization.vaccinationProtocol.doseStatus.coding.code</t>
+  </si>
+  <si>
+    <t>Immunization.vaccinationProtocol.doseStatus.coding.display</t>
+  </si>
+  <si>
+    <t>Immunization.vaccinationProtocol.doseStatus.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Immunization.vaccinationProtocol.doseStatus.text</t>
   </si>
   <si>
     <t>Immunization.vaccinationProtocol.doseStatusReason</t>
@@ -1846,7 +1847,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN125"/>
+  <dimension ref="A1:AN124"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1855,7 +1856,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="69.5390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="63.05078125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="22.59765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -2953,10 +2954,10 @@
         <v>103</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -3016,10 +3017,10 @@
         <v>43</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>41</v>
@@ -3042,7 +3043,7 @@
         <v>95</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>41</v>
@@ -3064,13 +3065,13 @@
         <v>41</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3130,10 +3131,10 @@
         <v>43</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>41</v>
@@ -3156,7 +3157,7 @@
         <v>95</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>41</v>
@@ -3166,7 +3167,7 @@
         <v>42</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>41</v>
@@ -3178,13 +3179,13 @@
         <v>41</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3244,10 +3245,10 @@
         <v>43</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>41</v>
@@ -3267,11 +3268,11 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -3293,13 +3294,13 @@
         <v>96</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3349,7 +3350,7 @@
         <v>41</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>42</v>
@@ -3381,7 +3382,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3404,13 +3405,13 @@
         <v>41</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3461,7 +3462,7 @@
         <v>41</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>42</v>
@@ -3479,21 +3480,21 @@
         <v>41</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3516,13 +3517,13 @@
         <v>41</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3573,7 +3574,7 @@
         <v>41</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>42</v>
@@ -3591,7 +3592,7 @@
         <v>41</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>41</v>
@@ -3605,11 +3606,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3631,13 +3632,13 @@
         <v>96</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3678,7 +3679,7 @@
         <v>99</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>41</v>
@@ -3687,7 +3688,7 @@
         <v>100</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
@@ -3705,7 +3706,7 @@
         <v>41</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>41</v>
@@ -3719,7 +3720,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3745,16 +3746,16 @@
         <v>70</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>41</v>
@@ -3779,13 +3780,13 @@
         <v>41</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>41</v>
@@ -3803,7 +3804,7 @@
         <v>41</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
@@ -3821,7 +3822,7 @@
         <v>94</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>41</v>
@@ -3835,7 +3836,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3858,19 +3859,19 @@
         <v>52</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>41</v>
@@ -3898,46 +3899,46 @@
         <v>74</v>
       </c>
       <c r="X18" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>41</v>
@@ -3951,7 +3952,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3977,14 +3978,14 @@
         <v>64</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" t="s" s="2">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>41</v>
@@ -3997,7 +3998,7 @@
         <v>41</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>41</v>
@@ -4033,7 +4034,7 @@
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
@@ -4048,10 +4049,10 @@
         <v>41</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>41</v>
@@ -4065,7 +4066,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4088,16 +4089,16 @@
         <v>52</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4111,7 +4112,7 @@
         <v>41</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>41</v>
@@ -4147,7 +4148,7 @@
         <v>41</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -4162,10 +4163,10 @@
         <v>41</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>41</v>
@@ -4179,7 +4180,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4202,13 +4203,13 @@
         <v>52</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4259,7 +4260,7 @@
         <v>41</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
@@ -4274,10 +4275,10 @@
         <v>41</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>41</v>
@@ -4291,7 +4292,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4314,16 +4315,16 @@
         <v>52</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4373,7 +4374,7 @@
         <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -4388,10 +4389,10 @@
         <v>41</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>41</v>
@@ -4405,7 +4406,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4431,13 +4432,13 @@
         <v>70</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4463,13 +4464,13 @@
         <v>41</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>41</v>
@@ -4487,7 +4488,7 @@
         <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>51</v>
@@ -4505,13 +4506,13 @@
         <v>41</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>41</v>
@@ -4519,7 +4520,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4542,16 +4543,16 @@
         <v>52</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4601,7 +4602,7 @@
         <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>51</v>
@@ -4619,13 +4620,13 @@
         <v>41</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="AL24" t="s" s="2">
-        <v>192</v>
-      </c>
       <c r="AM24" t="s" s="2">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>41</v>
@@ -4633,7 +4634,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4656,13 +4657,13 @@
         <v>41</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4693,7 +4694,7 @@
       </c>
       <c r="X25" s="2"/>
       <c r="Y25" t="s" s="2">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>41</v>
@@ -4711,7 +4712,7 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>51</v>
@@ -4726,24 +4727,24 @@
         <v>41</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>209</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4766,13 +4767,13 @@
         <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4823,7 +4824,7 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>51</v>
@@ -4838,16 +4839,16 @@
         <v>41</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>41</v>
@@ -4855,7 +4856,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4878,13 +4879,13 @@
         <v>41</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4935,7 +4936,7 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4950,16 +4951,16 @@
         <v>41</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>41</v>
@@ -4967,7 +4968,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4990,16 +4991,16 @@
         <v>41</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5049,7 +5050,7 @@
         <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -5064,24 +5065,24 @@
         <v>41</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>235</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5104,16 +5105,16 @@
         <v>41</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5163,7 +5164,7 @@
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>51</v>
@@ -5178,13 +5179,13 @@
         <v>41</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>41</v>
@@ -5195,7 +5196,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5218,16 +5219,16 @@
         <v>41</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5253,52 +5254,52 @@
         <v>41</v>
       </c>
       <c r="W30" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="X30" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="Y30" t="s" s="2">
+      <c r="AK30" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>41</v>
@@ -5309,7 +5310,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5332,13 +5333,13 @@
         <v>41</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5389,7 +5390,7 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -5404,13 +5405,13 @@
         <v>41</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>41</v>
@@ -5421,7 +5422,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5444,13 +5445,13 @@
         <v>41</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5501,7 +5502,7 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -5516,10 +5517,10 @@
         <v>41</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>41</v>
@@ -5528,12 +5529,12 @@
         <v>41</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>263</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5556,13 +5557,13 @@
         <v>41</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5613,7 +5614,7 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -5628,10 +5629,10 @@
         <v>41</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>41</v>
@@ -5640,12 +5641,12 @@
         <v>41</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>269</v>
+        <v>276</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5668,13 +5669,13 @@
         <v>41</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5725,7 +5726,7 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -5740,10 +5741,10 @@
         <v>41</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>41</v>
@@ -5757,7 +5758,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5780,13 +5781,13 @@
         <v>41</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5813,13 +5814,13 @@
         <v>41</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>41</v>
@@ -5837,7 +5838,7 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5852,10 +5853,10 @@
         <v>41</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>41</v>
@@ -5864,12 +5865,12 @@
         <v>41</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>283</v>
+        <v>290</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5892,13 +5893,13 @@
         <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5949,7 +5950,7 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5967,7 +5968,7 @@
         <v>41</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>41</v>
@@ -5981,11 +5982,11 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6007,13 +6008,13 @@
         <v>96</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6054,7 +6055,7 @@
         <v>99</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>41</v>
@@ -6063,7 +6064,7 @@
         <v>100</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -6081,7 +6082,7 @@
         <v>41</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>41</v>
@@ -6095,7 +6096,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6118,19 +6119,19 @@
         <v>52</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>41</v>
@@ -6167,7 +6168,7 @@
         <v>41</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="AB38" s="2"/>
       <c r="AC38" t="s" s="2">
@@ -6177,7 +6178,7 @@
         <v>100</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -6192,10 +6193,10 @@
         <v>41</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>41</v>
@@ -6209,10 +6210,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>41</v>
@@ -6234,19 +6235,19 @@
         <v>52</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>41</v>
@@ -6295,7 +6296,7 @@
         <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -6310,10 +6311,10 @@
         <v>41</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>41</v>
@@ -6327,7 +6328,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6350,13 +6351,13 @@
         <v>41</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6407,7 +6408,7 @@
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -6425,7 +6426,7 @@
         <v>41</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>41</v>
@@ -6439,7 +6440,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6510,7 +6511,7 @@
         <v>99</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="AC41" t="s" s="2">
         <v>41</v>
@@ -6519,7 +6520,7 @@
         <v>100</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6551,10 +6552,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="C42" t="s" s="2">
         <v>41</v>
@@ -6576,13 +6577,13 @@
         <v>41</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>97</v>
+        <v>308</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>98</v>
+        <v>309</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6633,7 +6634,7 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6665,7 +6666,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6673,7 +6674,7 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>51</v>
@@ -6685,25 +6686,29 @@
         <v>41</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>125</v>
+        <v>311</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>41</v>
+        <v>315</v>
       </c>
       <c r="R43" t="s" s="2">
         <v>41</v>
@@ -6745,7 +6750,7 @@
         <v>41</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>127</v>
+        <v>316</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6760,10 +6765,10 @@
         <v>41</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>41</v>
+        <v>317</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>128</v>
+        <v>318</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>41</v>
@@ -6777,18 +6782,18 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>41</v>
@@ -6797,19 +6802,19 @@
         <v>41</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>130</v>
+        <v>320</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>131</v>
+        <v>321</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>113</v>
+        <v>322</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6847,25 +6852,25 @@
         <v>41</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>132</v>
+        <v>41</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>133</v>
+        <v>323</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>41</v>
@@ -6874,10 +6879,10 @@
         <v>41</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>41</v>
+        <v>324</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>128</v>
+        <v>325</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>41</v>
@@ -6891,7 +6896,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6911,21 +6916,21 @@
         <v>41</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>304</v>
+        <v>327</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" t="s" s="2">
+        <v>329</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>41</v>
       </c>
@@ -6973,10 +6978,10 @@
         <v>41</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>307</v>
+        <v>330</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>51</v>
@@ -6988,10 +6993,10 @@
         <v>41</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>41</v>
+        <v>331</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>94</v>
+        <v>332</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>41</v>
@@ -7005,7 +7010,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7013,7 +7018,7 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>51</v>
@@ -7025,19 +7030,21 @@
         <v>41</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>309</v>
+        <v>131</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>311</v>
+        <v>335</v>
       </c>
       <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
+      <c r="N46" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>41</v>
       </c>
@@ -7085,7 +7092,7 @@
         <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>312</v>
+        <v>337</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -7100,10 +7107,10 @@
         <v>41</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>41</v>
+        <v>338</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>94</v>
+        <v>339</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>41</v>
@@ -7117,7 +7124,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>313</v>
+        <v>340</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7125,7 +7132,7 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>51</v>
@@ -7140,26 +7147,26 @@
         <v>52</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>64</v>
+        <v>202</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>314</v>
+        <v>341</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>315</v>
+        <v>342</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>316</v>
+        <v>343</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>317</v>
+        <v>344</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>318</v>
+        <v>41</v>
       </c>
       <c r="R47" t="s" s="2">
         <v>41</v>
@@ -7201,7 +7208,7 @@
         <v>41</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -7216,10 +7223,10 @@
         <v>41</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>320</v>
+        <v>346</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>321</v>
+        <v>347</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>41</v>
@@ -7233,7 +7240,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>322</v>
+        <v>348</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7256,18 +7263,20 @@
         <v>52</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>323</v>
+        <v>349</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>324</v>
+        <v>350</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>41</v>
       </c>
@@ -7315,7 +7324,7 @@
         <v>41</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>326</v>
+        <v>353</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -7330,10 +7339,10 @@
         <v>41</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>327</v>
+        <v>354</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>328</v>
+        <v>355</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>41</v>
@@ -7347,7 +7356,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>329</v>
+        <v>356</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7355,7 +7364,7 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>51</v>
@@ -7367,21 +7376,19 @@
         <v>41</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>331</v>
+        <v>358</v>
       </c>
       <c r="M49" s="2"/>
-      <c r="N49" t="s" s="2">
-        <v>332</v>
-      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>41</v>
       </c>
@@ -7405,13 +7412,13 @@
         <v>41</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>41</v>
+        <v>254</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>41</v>
+        <v>359</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>41</v>
+        <v>360</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>41</v>
@@ -7429,7 +7436,7 @@
         <v>41</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -7444,10 +7451,10 @@
         <v>41</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>334</v>
+        <v>361</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>335</v>
+        <v>362</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>41</v>
@@ -7456,12 +7463,12 @@
         <v>41</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>41</v>
+        <v>363</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7469,7 +7476,7 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>51</v>
@@ -7481,21 +7488,19 @@
         <v>41</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>337</v>
+        <v>132</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>338</v>
+        <v>133</v>
       </c>
       <c r="M50" s="2"/>
-      <c r="N50" t="s" s="2">
-        <v>339</v>
-      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>41</v>
       </c>
@@ -7543,7 +7548,7 @@
         <v>41</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>340</v>
+        <v>134</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7558,10 +7563,10 @@
         <v>41</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>341</v>
+        <v>41</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>342</v>
+        <v>135</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>41</v>
@@ -7575,18 +7580,18 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>41</v>
@@ -7595,23 +7600,21 @@
         <v>41</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>195</v>
+        <v>96</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>344</v>
+        <v>137</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>345</v>
+        <v>138</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>41</v>
       </c>
@@ -7647,25 +7650,25 @@
         <v>41</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>41</v>
+        <v>139</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>348</v>
+        <v>140</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>41</v>
@@ -7674,10 +7677,10 @@
         <v>41</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>349</v>
+        <v>41</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>350</v>
+        <v>135</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>41</v>
@@ -7691,7 +7694,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7702,7 +7705,7 @@
         <v>42</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>41</v>
@@ -7714,19 +7717,19 @@
         <v>52</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>124</v>
+        <v>294</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>352</v>
+        <v>295</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>353</v>
+        <v>296</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>354</v>
+        <v>297</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>355</v>
+        <v>298</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>41</v>
@@ -7763,25 +7766,23 @@
         <v>41</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="AB52" s="2"/>
       <c r="AC52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>356</v>
+        <v>300</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>41</v>
@@ -7790,10 +7791,10 @@
         <v>41</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>357</v>
+        <v>301</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>358</v>
+        <v>302</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>41</v>
@@ -7807,9 +7808,11 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="B53" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="C53" t="s" s="2">
         <v>41</v>
       </c>
@@ -7827,19 +7830,23 @@
         <v>41</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>145</v>
+        <v>294</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>360</v>
+        <v>295</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>41</v>
       </c>
@@ -7863,13 +7870,13 @@
         <v>41</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>41</v>
@@ -7887,13 +7894,13 @@
         <v>41</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>359</v>
+        <v>300</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>41</v>
@@ -7902,10 +7909,10 @@
         <v>41</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>364</v>
+        <v>301</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>365</v>
+        <v>302</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>41</v>
@@ -7914,12 +7921,12 @@
         <v>41</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>366</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7942,13 +7949,13 @@
         <v>41</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7999,7 +8006,7 @@
         <v>41</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
@@ -8017,7 +8024,7 @@
         <v>41</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>41</v>
@@ -8031,11 +8038,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8057,14 +8064,12 @@
         <v>96</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>41</v>
@@ -8104,7 +8109,7 @@
         <v>99</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="AC55" t="s" s="2">
         <v>41</v>
@@ -8113,7 +8118,7 @@
         <v>100</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
@@ -8131,7 +8136,7 @@
         <v>41</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>128</v>
+        <v>41</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>41</v>
@@ -8145,9 +8150,11 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="B56" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="C56" t="s" s="2">
         <v>41</v>
       </c>
@@ -8165,23 +8172,19 @@
         <v>41</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>41</v>
       </c>
@@ -8217,17 +8220,19 @@
         <v>41</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AB56" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AC56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>293</v>
+        <v>140</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
@@ -8242,10 +8247,10 @@
         <v>41</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>294</v>
+        <v>41</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>295</v>
+        <v>41</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>41</v>
@@ -8259,17 +8264,15 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>51</v>
@@ -8284,26 +8287,26 @@
         <v>52</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>287</v>
+        <v>64</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>288</v>
+        <v>311</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>290</v>
+        <v>313</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>291</v>
+        <v>314</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
-        <v>41</v>
+        <v>315</v>
       </c>
       <c r="R57" t="s" s="2">
         <v>41</v>
@@ -8321,13 +8324,13 @@
         <v>41</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>247</v>
+        <v>41</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>370</v>
+        <v>41</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>371</v>
+        <v>41</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>41</v>
@@ -8345,13 +8348,13 @@
         <v>41</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>293</v>
+        <v>316</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>41</v>
@@ -8360,10 +8363,10 @@
         <v>41</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>294</v>
+        <v>317</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>41</v>
@@ -8397,18 +8400,20 @@
         <v>41</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>125</v>
+        <v>320</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>41</v>
@@ -8457,7 +8462,7 @@
         <v>41</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>127</v>
+        <v>323</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
@@ -8472,10 +8477,10 @@
         <v>41</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>41</v>
+        <v>324</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>128</v>
+        <v>325</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>41</v>
@@ -8497,10 +8502,10 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>41</v>
@@ -8509,19 +8514,21 @@
         <v>41</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>97</v>
+        <v>327</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>98</v>
+        <v>328</v>
       </c>
       <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
+      <c r="N59" t="s" s="2">
+        <v>329</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>41</v>
       </c>
@@ -8557,25 +8564,25 @@
         <v>41</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>132</v>
+        <v>41</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>133</v>
+        <v>330</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>41</v>
@@ -8584,10 +8591,10 @@
         <v>41</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>41</v>
+        <v>331</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>41</v>
+        <v>332</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>41</v>
@@ -8601,20 +8608,18 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>41</v>
@@ -8623,19 +8628,21 @@
         <v>41</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>300</v>
+        <v>131</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>97</v>
+        <v>334</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>98</v>
+        <v>335</v>
       </c>
       <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+      <c r="N60" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>41</v>
       </c>
@@ -8683,13 +8690,13 @@
         <v>41</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>133</v>
+        <v>337</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>41</v>
@@ -8698,10 +8705,10 @@
         <v>41</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>41</v>
+        <v>338</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>41</v>
+        <v>339</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>41</v>
@@ -8715,7 +8722,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8735,19 +8742,23 @@
         <v>41</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>124</v>
+        <v>202</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>125</v>
+        <v>341</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>41</v>
       </c>
@@ -8795,7 +8806,7 @@
         <v>41</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>127</v>
+        <v>345</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
@@ -8810,10 +8821,10 @@
         <v>41</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>41</v>
+        <v>346</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>128</v>
+        <v>347</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>41</v>
@@ -8827,18 +8838,18 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>41</v>
@@ -8847,21 +8858,23 @@
         <v>41</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>130</v>
+        <v>349</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>131</v>
+        <v>350</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>41</v>
       </c>
@@ -8897,25 +8910,25 @@
         <v>41</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>132</v>
+        <v>41</v>
       </c>
       <c r="AC62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>133</v>
+        <v>353</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>41</v>
@@ -8924,10 +8937,10 @@
         <v>41</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>41</v>
+        <v>354</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>128</v>
+        <v>355</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>41</v>
@@ -8941,7 +8954,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8949,7 +8962,7 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>51</v>
@@ -8964,17 +8977,15 @@
         <v>41</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>64</v>
+        <v>378</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>304</v>
+        <v>379</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>41</v>
@@ -9023,10 +9034,10 @@
         <v>41</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>307</v>
+        <v>377</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>51</v>
@@ -9038,10 +9049,10 @@
         <v>41</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>41</v>
+        <v>381</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>94</v>
+        <v>382</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>41</v>
@@ -9055,7 +9066,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9066,7 +9077,7 @@
         <v>42</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>41</v>
@@ -9075,16 +9086,16 @@
         <v>41</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>309</v>
+        <v>384</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>310</v>
+        <v>385</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>311</v>
+        <v>386</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9135,31 +9146,31 @@
         <v>41</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>312</v>
+        <v>383</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>41</v>
+        <v>387</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>41</v>
+        <v>388</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>94</v>
+        <v>389</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>41</v>
+        <v>390</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>41</v>
@@ -9167,7 +9178,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9175,7 +9186,7 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>51</v>
@@ -9187,29 +9198,25 @@
         <v>41</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>314</v>
+        <v>132</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>317</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
-        <v>318</v>
+        <v>41</v>
       </c>
       <c r="R65" t="s" s="2">
         <v>41</v>
@@ -9251,7 +9258,7 @@
         <v>41</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>319</v>
+        <v>134</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
@@ -9266,10 +9273,10 @@
         <v>41</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>320</v>
+        <v>41</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>321</v>
+        <v>135</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>41</v>
@@ -9283,18 +9290,18 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>41</v>
@@ -9303,19 +9310,19 @@
         <v>41</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>323</v>
+        <v>137</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>324</v>
+        <v>138</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>325</v>
+        <v>120</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9365,13 +9372,13 @@
         <v>41</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>326</v>
+        <v>140</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>41</v>
@@ -9380,10 +9387,10 @@
         <v>41</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>327</v>
+        <v>41</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>328</v>
+        <v>135</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>41</v>
@@ -9397,41 +9404,41 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>41</v>
+        <v>394</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>330</v>
+        <v>118</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>41</v>
       </c>
@@ -9479,13 +9486,13 @@
         <v>41</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>333</v>
+        <v>396</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>41</v>
@@ -9494,10 +9501,10 @@
         <v>41</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>334</v>
+        <v>41</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>335</v>
+        <v>94</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>41</v>
@@ -9511,7 +9518,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9519,7 +9526,7 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>51</v>
@@ -9534,18 +9541,16 @@
         <v>52</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>337</v>
+        <v>398</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>338</v>
+        <v>399</v>
       </c>
       <c r="M68" s="2"/>
-      <c r="N68" t="s" s="2">
-        <v>339</v>
-      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>41</v>
       </c>
@@ -9569,13 +9574,13 @@
         <v>41</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>41</v>
+        <v>400</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>41</v>
+        <v>401</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>41</v>
@@ -9593,7 +9598,7 @@
         <v>41</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>340</v>
+        <v>397</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
@@ -9608,16 +9613,16 @@
         <v>41</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>341</v>
+        <v>41</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>342</v>
+        <v>402</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>41</v>
+        <v>403</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>41</v>
@@ -9625,7 +9630,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>382</v>
+        <v>404</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9633,7 +9638,7 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F69" t="s" s="2">
         <v>51</v>
@@ -9648,20 +9653,16 @@
         <v>52</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>195</v>
+        <v>405</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>344</v>
+        <v>406</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>41</v>
       </c>
@@ -9709,10 +9710,10 @@
         <v>41</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>51</v>
@@ -9724,16 +9725,16 @@
         <v>41</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>349</v>
+        <v>41</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>350</v>
+        <v>408</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>41</v>
+        <v>409</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>41</v>
+        <v>410</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>41</v>
@@ -9741,7 +9742,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>383</v>
+        <v>411</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9752,7 +9753,7 @@
         <v>42</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>41</v>
@@ -9764,20 +9765,16 @@
         <v>52</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>124</v>
+        <v>412</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>352</v>
+        <v>413</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>41</v>
       </c>
@@ -9825,13 +9822,13 @@
         <v>41</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>356</v>
+        <v>411</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>41</v>
@@ -9840,16 +9837,16 @@
         <v>41</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>357</v>
+        <v>41</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>358</v>
+        <v>415</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>41</v>
+        <v>416</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>41</v>
@@ -9857,7 +9854,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>384</v>
+        <v>417</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9880,13 +9877,13 @@
         <v>41</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>385</v>
+        <v>131</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>386</v>
+        <v>132</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>387</v>
+        <v>133</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9937,7 +9934,7 @@
         <v>41</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>384</v>
+        <v>134</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>42</v>
@@ -9952,10 +9949,10 @@
         <v>41</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>388</v>
+        <v>41</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>389</v>
+        <v>135</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>41</v>
@@ -9969,11 +9966,11 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>390</v>
+        <v>418</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9989,18 +9986,20 @@
         <v>41</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>391</v>
+        <v>96</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>392</v>
+        <v>137</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M72" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>41</v>
@@ -10037,19 +10036,19 @@
         <v>41</v>
       </c>
       <c r="AA72" t="s" s="2">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>41</v>
+        <v>139</v>
       </c>
       <c r="AC72" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD72" t="s" s="2">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>390</v>
+        <v>140</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>42</v>
@@ -10061,19 +10060,19 @@
         <v>41</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>394</v>
+        <v>41</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>395</v>
+        <v>41</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>396</v>
+        <v>135</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>397</v>
+        <v>41</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>41</v>
@@ -10081,7 +10080,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>398</v>
+        <v>419</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10101,16 +10100,16 @@
         <v>41</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>124</v>
+        <v>420</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>125</v>
+        <v>421</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>126</v>
+        <v>422</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10161,7 +10160,7 @@
         <v>41</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>127</v>
+        <v>423</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>42</v>
@@ -10176,10 +10175,10 @@
         <v>41</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>128</v>
+        <v>424</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>41</v>
@@ -10193,18 +10192,18 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>399</v>
+        <v>425</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>41</v>
@@ -10213,20 +10212,18 @@
         <v>41</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>96</v>
+        <v>234</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>130</v>
+        <v>426</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="M74" s="2"/>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>41</v>
@@ -10275,13 +10272,13 @@
         <v>41</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>133</v>
+        <v>428</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>41</v>
@@ -10290,10 +10287,10 @@
         <v>41</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>128</v>
+        <v>429</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>41</v>
@@ -10307,40 +10304,38 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>400</v>
+        <v>430</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>401</v>
+        <v>41</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>111</v>
+        <v>431</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>41</v>
@@ -10389,13 +10384,13 @@
         <v>41</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>403</v>
+        <v>433</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>41</v>
@@ -10404,10 +10399,10 @@
         <v>41</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>94</v>
+        <v>434</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>41</v>
@@ -10421,7 +10416,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>404</v>
+        <v>435</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10441,16 +10436,16 @@
         <v>41</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>145</v>
+        <v>384</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>405</v>
+        <v>436</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>406</v>
+        <v>437</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10477,13 +10472,13 @@
         <v>41</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>407</v>
+        <v>41</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>408</v>
+        <v>41</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>41</v>
@@ -10501,7 +10496,7 @@
         <v>41</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>404</v>
+        <v>435</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>42</v>
@@ -10513,19 +10508,19 @@
         <v>41</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>41</v>
+        <v>387</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>409</v>
+        <v>135</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>410</v>
+        <v>41</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>41</v>
@@ -10533,7 +10528,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>411</v>
+        <v>438</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10541,7 +10536,7 @@
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F77" t="s" s="2">
         <v>51</v>
@@ -10553,16 +10548,16 @@
         <v>41</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>412</v>
+        <v>131</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>413</v>
+        <v>132</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>414</v>
+        <v>133</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10613,10 +10608,10 @@
         <v>41</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>411</v>
+        <v>134</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>51</v>
@@ -10631,13 +10626,13 @@
         <v>41</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>415</v>
+        <v>135</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>416</v>
+        <v>41</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>417</v>
+        <v>41</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>41</v>
@@ -10645,11 +10640,11 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>418</v>
+        <v>439</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10665,18 +10660,20 @@
         <v>41</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>419</v>
+        <v>96</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>420</v>
+        <v>137</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="M78" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>41</v>
@@ -10725,7 +10722,7 @@
         <v>41</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>418</v>
+        <v>140</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>42</v>
@@ -10743,13 +10740,13 @@
         <v>41</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>422</v>
+        <v>135</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>423</v>
+        <v>41</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>41</v>
@@ -10757,38 +10754,40 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>41</v>
+        <v>394</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="M79" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>41</v>
@@ -10837,13 +10836,13 @@
         <v>41</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>127</v>
+        <v>396</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>41</v>
@@ -10855,7 +10854,7 @@
         <v>41</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>41</v>
@@ -10869,11 +10868,11 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>425</v>
+        <v>441</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -10892,17 +10891,15 @@
         <v>41</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>96</v>
+        <v>152</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>130</v>
+        <v>442</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="M80" s="2"/>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>41</v>
@@ -10927,31 +10924,29 @@
         <v>41</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="X80" s="2"/>
       <c r="Y80" t="s" s="2">
-        <v>41</v>
+        <v>444</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA80" t="s" s="2">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>132</v>
+        <v>41</v>
       </c>
       <c r="AC80" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD80" t="s" s="2">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>133</v>
+        <v>441</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>42</v>
@@ -10969,13 +10964,13 @@
         <v>41</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>128</v>
+        <v>445</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>41</v>
+        <v>446</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>41</v>
@@ -10983,7 +10978,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>426</v>
+        <v>447</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10994,7 +10989,7 @@
         <v>42</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>41</v>
@@ -11003,16 +10998,16 @@
         <v>41</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>427</v>
+        <v>152</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>428</v>
+        <v>448</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>429</v>
+        <v>449</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -11039,13 +11034,13 @@
         <v>41</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>41</v>
+        <v>254</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>41</v>
+        <v>450</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>41</v>
+        <v>451</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>41</v>
@@ -11063,13 +11058,13 @@
         <v>41</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>430</v>
+        <v>447</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>41</v>
@@ -11078,16 +11073,16 @@
         <v>41</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>94</v>
+        <v>452</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>431</v>
+        <v>206</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>41</v>
+        <v>453</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>41</v>
@@ -11095,7 +11090,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>432</v>
+        <v>454</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11106,7 +11101,7 @@
         <v>42</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>41</v>
@@ -11115,18 +11110,20 @@
         <v>41</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>227</v>
+        <v>384</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>433</v>
+        <v>455</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="M82" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>457</v>
+      </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>41</v>
@@ -11175,25 +11172,25 @@
         <v>41</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>435</v>
+        <v>454</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>41</v>
+        <v>387</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>94</v>
+        <v>458</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>436</v>
+        <v>459</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>41</v>
@@ -11207,7 +11204,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>437</v>
+        <v>460</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11215,7 +11212,7 @@
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F83" t="s" s="2">
         <v>51</v>
@@ -11230,13 +11227,13 @@
         <v>41</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>438</v>
+        <v>132</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>439</v>
+        <v>133</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -11287,10 +11284,10 @@
         <v>41</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>440</v>
+        <v>134</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>51</v>
@@ -11302,10 +11299,10 @@
         <v>41</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>441</v>
+        <v>135</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>41</v>
@@ -11319,18 +11316,18 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>442</v>
+        <v>461</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>41</v>
@@ -11342,15 +11339,17 @@
         <v>41</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>391</v>
+        <v>96</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>443</v>
+        <v>137</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="M84" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>41</v>
@@ -11399,25 +11398,25 @@
         <v>41</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>442</v>
+        <v>140</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>394</v>
+        <v>41</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>41</v>
@@ -11431,38 +11430,40 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>445</v>
+        <v>462</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>41</v>
+        <v>394</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="M85" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>41</v>
@@ -11511,13 +11512,13 @@
         <v>41</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>127</v>
+        <v>396</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>41</v>
@@ -11529,7 +11530,7 @@
         <v>41</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>41</v>
@@ -11543,18 +11544,18 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>41</v>
@@ -11566,17 +11567,15 @@
         <v>41</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>96</v>
+        <v>234</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>130</v>
+        <v>464</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="M86" s="2"/>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>41</v>
@@ -11625,13 +11624,13 @@
         <v>41</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>133</v>
+        <v>463</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>41</v>
@@ -11640,10 +11639,10 @@
         <v>41</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>41</v>
+        <v>466</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>128</v>
+        <v>239</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>41</v>
@@ -11657,40 +11656,38 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>401</v>
+        <v>41</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>96</v>
+        <v>468</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>111</v>
+        <v>469</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="M87" s="2"/>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>41</v>
@@ -11739,13 +11736,13 @@
         <v>41</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>403</v>
+        <v>467</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>41</v>
@@ -11754,10 +11751,10 @@
         <v>41</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>41</v>
+        <v>471</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>94</v>
+        <v>472</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>41</v>
@@ -11771,7 +11768,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>448</v>
+        <v>473</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11782,7 +11779,7 @@
         <v>42</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>41</v>
@@ -11794,13 +11791,13 @@
         <v>41</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>145</v>
+        <v>202</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>449</v>
+        <v>474</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>450</v>
+        <v>475</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -11827,11 +11824,13 @@
         <v>41</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="X88" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Y88" t="s" s="2">
-        <v>451</v>
+        <v>41</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>41</v>
@@ -11849,13 +11848,13 @@
         <v>41</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>448</v>
+        <v>473</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>41</v>
@@ -11864,16 +11863,16 @@
         <v>41</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>41</v>
+        <v>476</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>452</v>
+        <v>477</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>453</v>
+        <v>41</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>41</v>
@@ -11881,7 +11880,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>454</v>
+        <v>478</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11904,13 +11903,13 @@
         <v>41</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>145</v>
+        <v>384</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>455</v>
+        <v>479</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>456</v>
+        <v>480</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -11937,13 +11936,13 @@
         <v>41</v>
       </c>
       <c r="W89" t="s" s="2">
-        <v>247</v>
+        <v>41</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>457</v>
+        <v>41</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>458</v>
+        <v>41</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>41</v>
@@ -11961,7 +11960,7 @@
         <v>41</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>454</v>
+        <v>478</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>42</v>
@@ -11973,19 +11972,19 @@
         <v>41</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>41</v>
+        <v>387</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>459</v>
+        <v>481</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>199</v>
+        <v>482</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>460</v>
+        <v>41</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>41</v>
@@ -11993,7 +11992,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>461</v>
+        <v>483</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12004,7 +12003,7 @@
         <v>42</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>41</v>
@@ -12016,17 +12015,15 @@
         <v>41</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>391</v>
+        <v>131</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>462</v>
+        <v>132</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>464</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="M90" s="2"/>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>41</v>
@@ -12075,25 +12072,25 @@
         <v>41</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>461</v>
+        <v>134</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>394</v>
+        <v>41</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>465</v>
+        <v>41</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>466</v>
+        <v>135</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>41</v>
@@ -12107,18 +12104,18 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>467</v>
+        <v>484</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>41</v>
@@ -12130,15 +12127,17 @@
         <v>41</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="M91" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>41</v>
@@ -12187,13 +12186,13 @@
         <v>41</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>41</v>
@@ -12205,7 +12204,7 @@
         <v>41</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>41</v>
@@ -12219,11 +12218,11 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>110</v>
+        <v>394</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -12236,22 +12235,22 @@
         <v>41</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J92" t="s" s="2">
         <v>96</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>131</v>
+        <v>395</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -12301,7 +12300,7 @@
         <v>41</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>133</v>
+        <v>396</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>42</v>
@@ -12319,7 +12318,7 @@
         <v>41</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>41</v>
@@ -12333,40 +12332,38 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>401</v>
+        <v>41</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H93" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>96</v>
+        <v>487</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>111</v>
+        <v>488</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="M93" s="2"/>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>41</v>
@@ -12415,13 +12412,13 @@
         <v>41</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>403</v>
+        <v>486</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>41</v>
@@ -12433,7 +12430,7 @@
         <v>41</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>94</v>
+        <v>490</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>41</v>
@@ -12447,7 +12444,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>470</v>
+        <v>491</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12470,13 +12467,13 @@
         <v>41</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>227</v>
+        <v>131</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>471</v>
+        <v>492</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>472</v>
+        <v>493</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -12527,7 +12524,7 @@
         <v>41</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>470</v>
+        <v>491</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>42</v>
@@ -12542,10 +12539,10 @@
         <v>41</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>473</v>
+        <v>41</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>232</v>
+        <v>494</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>41</v>
@@ -12559,7 +12556,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>474</v>
+        <v>495</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12582,13 +12579,13 @@
         <v>41</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>475</v>
+        <v>185</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>476</v>
+        <v>496</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>477</v>
+        <v>497</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -12639,7 +12636,7 @@
         <v>41</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>474</v>
+        <v>495</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>42</v>
@@ -12654,10 +12651,10 @@
         <v>41</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>478</v>
+        <v>41</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>479</v>
+        <v>498</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>41</v>
@@ -12671,7 +12668,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>480</v>
+        <v>499</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12694,13 +12691,13 @@
         <v>41</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>195</v>
+        <v>131</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>481</v>
+        <v>500</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>482</v>
+        <v>501</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -12751,7 +12748,7 @@
         <v>41</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>480</v>
+        <v>499</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>42</v>
@@ -12766,10 +12763,10 @@
         <v>41</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>483</v>
+        <v>41</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>41</v>
@@ -12783,7 +12780,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>485</v>
+        <v>502</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12794,7 +12791,7 @@
         <v>42</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>41</v>
@@ -12806,13 +12803,13 @@
         <v>41</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>391</v>
+        <v>487</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>486</v>
+        <v>503</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>487</v>
+        <v>504</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -12863,25 +12860,25 @@
         <v>41</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>485</v>
+        <v>502</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>394</v>
+        <v>41</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>488</v>
+        <v>41</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>41</v>
@@ -12895,7 +12892,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12903,10 +12900,10 @@
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>41</v>
@@ -12918,13 +12915,13 @@
         <v>41</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>125</v>
+        <v>506</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>126</v>
+        <v>507</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -12951,13 +12948,13 @@
         <v>41</v>
       </c>
       <c r="W98" t="s" s="2">
-        <v>41</v>
+        <v>254</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>41</v>
+        <v>508</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>41</v>
+        <v>509</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>41</v>
@@ -12975,13 +12972,13 @@
         <v>41</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>127</v>
+        <v>505</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>41</v>
@@ -12993,7 +12990,7 @@
         <v>41</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>128</v>
+        <v>510</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>41</v>
@@ -13007,18 +13004,18 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>491</v>
+        <v>511</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>41</v>
@@ -13030,17 +13027,15 @@
         <v>41</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="M99" s="2"/>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
         <v>41</v>
@@ -13089,13 +13084,13 @@
         <v>41</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>41</v>
@@ -13107,7 +13102,7 @@
         <v>41</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>41</v>
@@ -13121,11 +13116,11 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>492</v>
+        <v>512</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>401</v>
+        <v>117</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
@@ -13138,22 +13133,22 @@
         <v>41</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J100" t="s" s="2">
         <v>96</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>402</v>
+        <v>138</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
@@ -13191,19 +13186,19 @@
         <v>41</v>
       </c>
       <c r="AA100" t="s" s="2">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="AB100" t="s" s="2">
-        <v>41</v>
+        <v>139</v>
       </c>
       <c r="AC100" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD100" t="s" s="2">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>403</v>
+        <v>140</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>42</v>
@@ -13221,7 +13216,7 @@
         <v>41</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>41</v>
@@ -13235,7 +13230,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>493</v>
+        <v>513</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13243,10 +13238,10 @@
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F101" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G101" t="s" s="2">
         <v>41</v>
@@ -13255,19 +13250,23 @@
         <v>41</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>494</v>
+        <v>294</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>495</v>
+        <v>295</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="M101" s="2"/>
-      <c r="N101" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="O101" t="s" s="2">
         <v>41</v>
       </c>
@@ -13303,25 +13302,23 @@
         <v>41</v>
       </c>
       <c r="AA101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="AB101" s="2"/>
       <c r="AC101" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD101" t="s" s="2">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>493</v>
+        <v>300</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>41</v>
@@ -13330,10 +13327,10 @@
         <v>41</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>41</v>
+        <v>301</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>497</v>
+        <v>302</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>41</v>
@@ -13347,9 +13344,11 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="B102" s="2"/>
+        <v>513</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="C102" t="s" s="2">
         <v>41</v>
       </c>
@@ -13367,19 +13366,23 @@
         <v>41</v>
       </c>
       <c r="I102" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>124</v>
+        <v>294</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>499</v>
+        <v>295</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="M102" s="2"/>
-      <c r="N102" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="O102" t="s" s="2">
         <v>41</v>
       </c>
@@ -13427,13 +13430,13 @@
         <v>41</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>498</v>
+        <v>300</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>41</v>
@@ -13442,10 +13445,10 @@
         <v>41</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>41</v>
+        <v>301</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>501</v>
+        <v>302</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>41</v>
@@ -13459,7 +13462,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13482,13 +13485,13 @@
         <v>41</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>178</v>
+        <v>131</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>503</v>
+        <v>132</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>504</v>
+        <v>133</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -13539,7 +13542,7 @@
         <v>41</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>502</v>
+        <v>134</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>42</v>
@@ -13557,7 +13560,7 @@
         <v>41</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>505</v>
+        <v>135</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>41</v>
@@ -13571,7 +13574,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -13582,7 +13585,7 @@
         <v>42</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>41</v>
@@ -13594,13 +13597,13 @@
         <v>41</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>507</v>
+        <v>97</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>508</v>
+        <v>98</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -13639,25 +13642,25 @@
         <v>41</v>
       </c>
       <c r="AA104" t="s" s="2">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="AB104" t="s" s="2">
-        <v>41</v>
+        <v>139</v>
       </c>
       <c r="AC104" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD104" t="s" s="2">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>506</v>
+        <v>140</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>41</v>
@@ -13669,7 +13672,7 @@
         <v>41</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>489</v>
+        <v>41</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>41</v>
@@ -13683,9 +13686,11 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="B105" s="2"/>
+        <v>515</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="C105" t="s" s="2">
         <v>41</v>
       </c>
@@ -13694,7 +13699,7 @@
         <v>42</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>41</v>
@@ -13706,13 +13711,13 @@
         <v>41</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>494</v>
+        <v>307</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>510</v>
+        <v>308</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>511</v>
+        <v>309</v>
       </c>
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
@@ -13763,13 +13768,13 @@
         <v>41</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>509</v>
+        <v>140</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>41</v>
@@ -13781,7 +13786,7 @@
         <v>41</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>501</v>
+        <v>41</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>41</v>
@@ -13795,7 +13800,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13806,7 +13811,7 @@
         <v>51</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>41</v>
@@ -13815,25 +13820,29 @@
         <v>41</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>145</v>
+        <v>64</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>513</v>
+        <v>311</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="M106" s="2"/>
-      <c r="N106" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="O106" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P106" s="2"/>
       <c r="Q106" t="s" s="2">
-        <v>41</v>
+        <v>315</v>
       </c>
       <c r="R106" t="s" s="2">
         <v>41</v>
@@ -13851,13 +13860,13 @@
         <v>41</v>
       </c>
       <c r="W106" t="s" s="2">
-        <v>247</v>
+        <v>41</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>515</v>
+        <v>41</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>516</v>
+        <v>41</v>
       </c>
       <c r="Z106" t="s" s="2">
         <v>41</v>
@@ -13875,13 +13884,13 @@
         <v>41</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>512</v>
+        <v>316</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>41</v>
@@ -13890,10 +13899,10 @@
         <v>41</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>41</v>
+        <v>317</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>517</v>
+        <v>318</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>41</v>
@@ -13907,7 +13916,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13927,18 +13936,20 @@
         <v>41</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>125</v>
+        <v>320</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="M107" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
         <v>41</v>
@@ -13987,7 +13998,7 @@
         <v>41</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>127</v>
+        <v>323</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>42</v>
@@ -14002,10 +14013,10 @@
         <v>41</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>41</v>
+        <v>324</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>128</v>
+        <v>325</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>41</v>
@@ -14019,18 +14030,18 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F108" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>41</v>
@@ -14039,21 +14050,21 @@
         <v>41</v>
       </c>
       <c r="I108" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>130</v>
+        <v>327</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N108" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="M108" s="2"/>
+      <c r="N108" t="s" s="2">
+        <v>329</v>
+      </c>
       <c r="O108" t="s" s="2">
         <v>41</v>
       </c>
@@ -14089,25 +14100,25 @@
         <v>41</v>
       </c>
       <c r="AA108" t="s" s="2">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="AB108" t="s" s="2">
-        <v>132</v>
+        <v>41</v>
       </c>
       <c r="AC108" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD108" t="s" s="2">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>133</v>
+        <v>330</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>41</v>
@@ -14116,10 +14127,10 @@
         <v>41</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>41</v>
+        <v>331</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>128</v>
+        <v>332</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>41</v>
@@ -14133,7 +14144,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14141,10 +14152,10 @@
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F109" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>41</v>
@@ -14156,19 +14167,17 @@
         <v>52</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>287</v>
+        <v>131</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>288</v>
+        <v>334</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="M109" s="2"/>
       <c r="N109" t="s" s="2">
-        <v>291</v>
+        <v>336</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>41</v>
@@ -14205,23 +14214,25 @@
         <v>41</v>
       </c>
       <c r="AA109" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AB109" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AC109" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD109" t="s" s="2">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>293</v>
+        <v>337</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>41</v>
@@ -14230,10 +14241,10 @@
         <v>41</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>41</v>
@@ -14249,9 +14260,7 @@
       <c r="A110" t="s" s="2">
         <v>520</v>
       </c>
-      <c r="B110" t="s" s="2">
-        <v>296</v>
-      </c>
+      <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
         <v>41</v>
       </c>
@@ -14272,19 +14281,19 @@
         <v>52</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>288</v>
+        <v>341</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>289</v>
+        <v>342</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>290</v>
+        <v>343</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>291</v>
+        <v>344</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>41</v>
@@ -14333,13 +14342,13 @@
         <v>41</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>293</v>
+        <v>345</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>41</v>
@@ -14348,10 +14357,10 @@
         <v>41</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>294</v>
+        <v>346</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>295</v>
+        <v>347</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>41</v>
@@ -14385,19 +14394,23 @@
         <v>41</v>
       </c>
       <c r="I111" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>125</v>
+        <v>349</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="M111" s="2"/>
-      <c r="N111" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="O111" t="s" s="2">
         <v>41</v>
       </c>
@@ -14445,7 +14458,7 @@
         <v>41</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>127</v>
+        <v>353</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>42</v>
@@ -14460,10 +14473,10 @@
         <v>41</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>41</v>
+        <v>354</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>128</v>
+        <v>355</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>41</v>
@@ -14485,10 +14498,10 @@
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F112" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G112" t="s" s="2">
         <v>41</v>
@@ -14500,15 +14513,17 @@
         <v>41</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>96</v>
+        <v>152</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>97</v>
+        <v>523</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M112" s="2"/>
+        <v>524</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>525</v>
+      </c>
       <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
         <v>41</v>
@@ -14533,37 +14548,37 @@
         <v>41</v>
       </c>
       <c r="W112" t="s" s="2">
-        <v>41</v>
+        <v>254</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>41</v>
+        <v>526</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>41</v>
+        <v>527</v>
       </c>
       <c r="Z112" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA112" t="s" s="2">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="AB112" t="s" s="2">
-        <v>132</v>
+        <v>41</v>
       </c>
       <c r="AC112" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD112" t="s" s="2">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>133</v>
+        <v>522</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>41</v>
@@ -14575,7 +14590,7 @@
         <v>41</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>41</v>
+        <v>528</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>41</v>
@@ -14589,11 +14604,9 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="B113" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>529</v>
+      </c>
+      <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
         <v>41</v>
       </c>
@@ -14602,7 +14615,7 @@
         <v>42</v>
       </c>
       <c r="F113" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>41</v>
@@ -14614,13 +14627,13 @@
         <v>41</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>300</v>
+        <v>131</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
@@ -14671,13 +14684,13 @@
         <v>41</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>41</v>
@@ -14689,7 +14702,7 @@
         <v>41</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>41</v>
@@ -14703,18 +14716,18 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F114" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>41</v>
@@ -14726,15 +14739,17 @@
         <v>41</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="M114" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
         <v>41</v>
@@ -14771,25 +14786,25 @@
         <v>41</v>
       </c>
       <c r="AA114" t="s" s="2">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="AB114" t="s" s="2">
-        <v>41</v>
+        <v>139</v>
       </c>
       <c r="AC114" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD114" t="s" s="2">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>41</v>
@@ -14801,7 +14816,7 @@
         <v>41</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>41</v>
@@ -14815,11 +14830,11 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
@@ -14835,21 +14850,23 @@
         <v>41</v>
       </c>
       <c r="I115" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>96</v>
+        <v>294</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>130</v>
+        <v>295</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>131</v>
+        <v>296</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N115" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="N115" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="O115" t="s" s="2">
         <v>41</v>
       </c>
@@ -14885,19 +14902,19 @@
         <v>41</v>
       </c>
       <c r="AA115" t="s" s="2">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="AB115" t="s" s="2">
-        <v>132</v>
+        <v>41</v>
       </c>
       <c r="AC115" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD115" t="s" s="2">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>133</v>
+        <v>300</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>42</v>
@@ -14912,10 +14929,10 @@
         <v>41</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>41</v>
+        <v>301</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>128</v>
+        <v>302</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>41</v>
@@ -14929,7 +14946,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -14937,7 +14954,7 @@
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F116" t="s" s="2">
         <v>51</v>
@@ -14952,17 +14969,15 @@
         <v>41</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>304</v>
+        <v>132</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="M116" s="2"/>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
         <v>41</v>
@@ -15011,10 +15026,10 @@
         <v>41</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>307</v>
+        <v>134</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>51</v>
@@ -15029,7 +15044,7 @@
         <v>41</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>41</v>
@@ -15043,18 +15058,18 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F117" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G117" t="s" s="2">
         <v>41</v>
@@ -15066,15 +15081,17 @@
         <v>41</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>309</v>
+        <v>96</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>310</v>
+        <v>137</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="M117" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="M117" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
         <v>41</v>
@@ -15111,25 +15128,25 @@
         <v>41</v>
       </c>
       <c r="AA117" t="s" s="2">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="AB117" t="s" s="2">
-        <v>41</v>
+        <v>139</v>
       </c>
       <c r="AC117" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD117" t="s" s="2">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>312</v>
+        <v>140</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>41</v>
@@ -15141,7 +15158,7 @@
         <v>41</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>41</v>
@@ -15155,7 +15172,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -15181,83 +15198,83 @@
         <v>64</v>
       </c>
       <c r="K118" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L118" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="N118" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="L118" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P118" s="2"/>
       <c r="Q118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE118" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AF118" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG118" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ118" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AK118" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="R118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE118" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="AF118" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG118" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ118" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="AK118" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="AL118" t="s" s="2">
         <v>41</v>
@@ -15271,7 +15288,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -15294,16 +15311,16 @@
         <v>52</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
@@ -15353,7 +15370,7 @@
         <v>41</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>42</v>
@@ -15368,10 +15385,10 @@
         <v>41</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>41</v>
@@ -15385,7 +15402,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -15411,14 +15428,14 @@
         <v>70</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" t="s" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>41</v>
@@ -15467,7 +15484,7 @@
         <v>41</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>42</v>
@@ -15482,10 +15499,10 @@
         <v>41</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="AL120" t="s" s="2">
         <v>41</v>
@@ -15499,7 +15516,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -15522,17 +15539,17 @@
         <v>52</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>41</v>
@@ -15581,7 +15598,7 @@
         <v>41</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>42</v>
@@ -15596,10 +15613,10 @@
         <v>41</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AL121" t="s" s="2">
         <v>41</v>
@@ -15613,7 +15630,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -15636,19 +15653,19 @@
         <v>52</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="K122" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L122" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="M122" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="N122" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="L122" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="M122" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N122" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>41</v>
@@ -15697,7 +15714,7 @@
         <v>41</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>42</v>
@@ -15712,10 +15729,10 @@
         <v>41</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>41</v>
@@ -15729,7 +15746,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -15752,19 +15769,19 @@
         <v>52</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="K123" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="L123" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M123" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="N123" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="L123" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="O123" t="s" s="2">
         <v>41</v>
@@ -15813,7 +15830,7 @@
         <v>41</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>42</v>
@@ -15828,10 +15845,10 @@
         <v>41</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>41</v>
@@ -15845,7 +15862,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -15853,7 +15870,7 @@
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F124" t="s" s="2">
         <v>51</v>
@@ -15868,17 +15885,15 @@
         <v>41</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>536</v>
-      </c>
+        <v>542</v>
+      </c>
+      <c r="M124" s="2"/>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
         <v>41</v>
@@ -15903,13 +15918,13 @@
         <v>41</v>
       </c>
       <c r="W124" t="s" s="2">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>41</v>
@@ -15927,10 +15942,10 @@
         <v>41</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>51</v>
@@ -15945,7 +15960,7 @@
         <v>41</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="AL124" t="s" s="2">
         <v>41</v>
@@ -15954,123 +15969,11 @@
         <v>41</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="125" hidden="true">
-      <c r="A125" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="B125" s="2"/>
-      <c r="C125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D125" s="2"/>
-      <c r="E125" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F125" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J125" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="K125" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="L125" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="M125" s="2"/>
-      <c r="N125" s="2"/>
-      <c r="O125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P125" s="2"/>
-      <c r="Q125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W125" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="X125" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="Y125" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="Z125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE125" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="AF125" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG125" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK125" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="AL125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN125" t="s" s="2">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN125">
+  <autoFilter ref="A1:AN124">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -16080,7 +15983,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI124">
+  <conditionalFormatting sqref="A2:AI123">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
